--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Career/Tutorials/HelloWorld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F4B576-A384-F242-9619-9A19DED39ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC74A84-BC18-884B-BA09-AEB326055A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9700" yWindow="-17960" windowWidth="25440" windowHeight="15360" xr2:uid="{130F5199-BF32-474E-B8DE-CAED0562DE12}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
